--- a/BackTest/2020-01-25 BackTest MBL.xlsx
+++ b/BackTest/2020-01-25 BackTest MBL.xlsx
@@ -29788,7 +29788,7 @@
         <v>1996385.313257403</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -29821,7 +29821,7 @@
         <v>1996385.313257403</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -29854,7 +29854,7 @@
         <v>1996385.313257403</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -29887,7 +29887,7 @@
         <v>1955479.313257403</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -29920,7 +29920,7 @@
         <v>1955479.313257403</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -29953,7 +29953,7 @@
         <v>1932784.313257403</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -29986,7 +29986,7 @@
         <v>1904925.313257403</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -30019,7 +30019,7 @@
         <v>1178008.976257403</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30052,7 +30052,7 @@
         <v>1205842.976257403</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -30085,7 +30085,7 @@
         <v>1131190.062857403</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -30118,7 +30118,7 @@
         <v>1185836.062857403</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -30151,7 +30151,7 @@
         <v>27427.01635740278</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -30184,7 +30184,7 @@
         <v>121851.6517574028</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -30316,7 +30316,7 @@
         <v>130898.6330252941</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -30349,7 +30349,7 @@
         <v>-109746.9674747059</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -30382,7 +30382,7 @@
         <v>-149655.9674747059</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -30481,7 +30481,7 @@
         <v>-109067.2548747059</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -30547,7 +30547,7 @@
         <v>276477.2876252941</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -30580,7 +30580,7 @@
         <v>301531.2876252941</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -30613,7 +30613,7 @@
         <v>265616.2876252941</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -30745,7 +30745,7 @@
         <v>207033.2876252941</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -30778,7 +30778,7 @@
         <v>262699.7843252941</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -30811,7 +30811,7 @@
         <v>296729.7843252941</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -36850,14 +36850,10 @@
         <v>-5660408.901465068</v>
       </c>
       <c r="H1105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1105" t="n">
-        <v>1.821</v>
-      </c>
-      <c r="J1105" t="n">
-        <v>1.821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1105" t="inlineStr"/>
+      <c r="J1105" t="inlineStr"/>
       <c r="K1105" t="inlineStr"/>
       <c r="L1105" t="n">
         <v>1</v>
@@ -36887,19 +36883,11 @@
         <v>-5699128.901465068</v>
       </c>
       <c r="H1106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1106" t="n">
-        <v>1.822</v>
-      </c>
-      <c r="J1106" t="n">
-        <v>1.821</v>
-      </c>
-      <c r="K1106" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1106" t="inlineStr"/>
+      <c r="J1106" t="inlineStr"/>
+      <c r="K1106" t="inlineStr"/>
       <c r="L1106" t="n">
         <v>1</v>
       </c>
@@ -36928,19 +36916,11 @@
         <v>-5674642.901465068</v>
       </c>
       <c r="H1107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1107" t="n">
-        <v>1.821</v>
-      </c>
-      <c r="J1107" t="n">
-        <v>1.821</v>
-      </c>
-      <c r="K1107" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1107" t="inlineStr"/>
+      <c r="J1107" t="inlineStr"/>
+      <c r="K1107" t="inlineStr"/>
       <c r="L1107" t="n">
         <v>1</v>
       </c>
@@ -36969,14 +36949,10 @@
         <v>-5706420.901465068</v>
       </c>
       <c r="H1108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1108" t="n">
-        <v>1.822</v>
-      </c>
-      <c r="J1108" t="n">
-        <v>1.822</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1108" t="inlineStr"/>
+      <c r="J1108" t="inlineStr"/>
       <c r="K1108" t="inlineStr"/>
       <c r="L1108" t="n">
         <v>1</v>
@@ -37006,19 +36982,11 @@
         <v>-5706420.901465068</v>
       </c>
       <c r="H1109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1109" t="n">
-        <v>1.821</v>
-      </c>
-      <c r="J1109" t="n">
-        <v>1.822</v>
-      </c>
-      <c r="K1109" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1109" t="inlineStr"/>
+      <c r="J1109" t="inlineStr"/>
+      <c r="K1109" t="inlineStr"/>
       <c r="L1109" t="n">
         <v>1</v>
       </c>
@@ -37047,19 +37015,11 @@
         <v>-5672387.901465068</v>
       </c>
       <c r="H1110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1110" t="n">
-        <v>1.821</v>
-      </c>
-      <c r="J1110" t="n">
-        <v>1.822</v>
-      </c>
-      <c r="K1110" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1110" t="inlineStr"/>
+      <c r="J1110" t="inlineStr"/>
+      <c r="K1110" t="inlineStr"/>
       <c r="L1110" t="n">
         <v>1</v>
       </c>
@@ -37088,14 +37048,10 @@
         <v>-5639963.901465068</v>
       </c>
       <c r="H1111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1111" t="n">
-        <v>1.825</v>
-      </c>
-      <c r="J1111" t="n">
-        <v>1.825</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1111" t="inlineStr"/>
+      <c r="J1111" t="inlineStr"/>
       <c r="K1111" t="inlineStr"/>
       <c r="L1111" t="n">
         <v>1</v>
@@ -37128,14 +37084,8 @@
         <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
-      <c r="J1112" t="n">
-        <v>1.825</v>
-      </c>
-      <c r="K1112" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J1112" t="inlineStr"/>
+      <c r="K1112" t="inlineStr"/>
       <c r="L1112" t="n">
         <v>1</v>
       </c>
@@ -37167,14 +37117,8 @@
         <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
-      <c r="J1113" t="n">
-        <v>1.825</v>
-      </c>
-      <c r="K1113" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J1113" t="inlineStr"/>
+      <c r="K1113" t="inlineStr"/>
       <c r="L1113" t="n">
         <v>1</v>
       </c>
@@ -38127,910 +38071,862 @@
         <v>-6850228.584165067</v>
       </c>
       <c r="H1142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1142" t="inlineStr"/>
+      <c r="J1142" t="inlineStr"/>
+      <c r="K1142" t="inlineStr"/>
+      <c r="L1142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1142" t="inlineStr"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="1" t="n">
+        <v>1141</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>39863</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>-6810365.584165067</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1143" t="inlineStr"/>
+      <c r="J1143" t="inlineStr"/>
+      <c r="K1143" t="inlineStr"/>
+      <c r="L1143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1143" t="inlineStr"/>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="1" t="n">
+        <v>1142</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>51635</v>
+      </c>
+      <c r="G1144" t="n">
+        <v>-6758730.584165067</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1144" t="inlineStr"/>
+      <c r="J1144" t="inlineStr"/>
+      <c r="K1144" t="inlineStr"/>
+      <c r="L1144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="1" t="n">
+        <v>1143</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>45968</v>
+      </c>
+      <c r="G1145" t="n">
+        <v>-6804698.584165067</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1145" t="inlineStr"/>
+      <c r="J1145" t="inlineStr"/>
+      <c r="K1145" t="inlineStr"/>
+      <c r="L1145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="1" t="n">
+        <v>1144</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>40992</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>-6845690.584165067</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1146" t="inlineStr"/>
+      <c r="J1146" t="inlineStr"/>
+      <c r="K1146" t="inlineStr"/>
+      <c r="L1146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="1" t="n">
+        <v>1145</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>35590.0016</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>-6881280.585765067</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1147" t="inlineStr"/>
+      <c r="J1147" t="inlineStr"/>
+      <c r="K1147" t="inlineStr"/>
+      <c r="L1147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="1" t="n">
+        <v>1146</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>160962.6269</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>-6720317.958865068</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1148" t="inlineStr"/>
+      <c r="J1148" t="inlineStr"/>
+      <c r="K1148" t="inlineStr"/>
+      <c r="L1148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="1" t="n">
+        <v>1147</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>22561</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>-6742878.958865068</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1149" t="inlineStr"/>
+      <c r="J1149" t="inlineStr"/>
+      <c r="K1149" t="inlineStr"/>
+      <c r="L1149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="1" t="n">
+        <v>1148</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>19987</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>-6742878.958865068</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1150" t="inlineStr"/>
+      <c r="J1150" t="inlineStr"/>
+      <c r="K1150" t="inlineStr"/>
+      <c r="L1150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="1" t="n">
+        <v>1149</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>19816</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>-6742878.958865068</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1151" t="inlineStr"/>
+      <c r="J1151" t="inlineStr"/>
+      <c r="K1151" t="inlineStr"/>
+      <c r="L1151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="1" t="n">
+        <v>1150</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>35189</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>-6707689.958865068</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="K1152" t="inlineStr"/>
+      <c r="L1152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="1" t="n">
+        <v>1151</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>27457</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>-6680232.958865068</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="K1153" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L1153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="1" t="n">
+        <v>1152</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>22750</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>-6702982.958865068</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="K1154" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L1154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="1" t="n">
+        <v>1153</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>39909</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>-6742891.958865068</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="K1155" t="inlineStr"/>
+      <c r="L1155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="1" t="n">
+        <v>1154</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>31194</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>-6742891.958865068</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="K1156" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L1156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="1" t="n">
+        <v>1155</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>23579</v>
+      </c>
+      <c r="G1157" t="n">
+        <v>-6719312.958865068</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="K1157" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L1157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="1" t="n">
+        <v>1156</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>32521</v>
+      </c>
+      <c r="G1158" t="n">
+        <v>-6751833.958865068</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="K1158" t="inlineStr"/>
+      <c r="L1158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="1" t="n">
+        <v>1157</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>36926</v>
+      </c>
+      <c r="G1159" t="n">
+        <v>-6788759.958865068</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="K1159" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L1159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="1" t="n">
+        <v>1158</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>42530</v>
+      </c>
+      <c r="G1160" t="n">
+        <v>-6831289.958865068</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="K1160" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L1160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="1" t="n">
+        <v>1159</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>31786</v>
+      </c>
+      <c r="G1161" t="n">
+        <v>-6831289.958865068</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="K1161" t="inlineStr"/>
+      <c r="L1161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="1" t="n">
+        <v>1160</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>42248</v>
+      </c>
+      <c r="G1162" t="n">
+        <v>-6789041.958865068</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="K1162" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L1162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="1" t="n">
+        <v>1161</v>
+      </c>
+      <c r="B1163" t="n">
         <v>1.819</v>
       </c>
-      <c r="J1142" t="inlineStr"/>
-      <c r="K1142" t="inlineStr">
+      <c r="C1163" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>32794</v>
+      </c>
+      <c r="G1163" t="n">
+        <v>-6789041.958865068</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="K1163" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L1163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1163" t="inlineStr"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="1" t="n">
+        <v>1162</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>42927</v>
+      </c>
+      <c r="G1164" t="n">
+        <v>-6789041.958865068</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="K1164" t="inlineStr"/>
+      <c r="L1164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="1" t="n">
+        <v>1163</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>39209.7127</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>-6828251.671565068</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="K1165" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L1142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1142" t="inlineStr"/>
-    </row>
-    <row r="1143">
-      <c r="A1143" s="1" t="n">
-        <v>1141</v>
-      </c>
-      <c r="B1143" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="C1143" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="D1143" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="E1143" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="F1143" t="n">
-        <v>39863</v>
-      </c>
-      <c r="G1143" t="n">
-        <v>-6810365.584165067</v>
-      </c>
-      <c r="H1143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1143" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="J1143" t="inlineStr"/>
-      <c r="K1143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1143" t="inlineStr"/>
-    </row>
-    <row r="1144">
-      <c r="A1144" s="1" t="n">
-        <v>1142</v>
-      </c>
-      <c r="B1144" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="C1144" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="D1144" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="E1144" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="F1144" t="n">
-        <v>51635</v>
-      </c>
-      <c r="G1144" t="n">
-        <v>-6758730.584165067</v>
-      </c>
-      <c r="H1144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1144" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="J1144" t="inlineStr"/>
-      <c r="K1144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1144" t="inlineStr"/>
-    </row>
-    <row r="1145">
-      <c r="A1145" s="1" t="n">
-        <v>1143</v>
-      </c>
-      <c r="B1145" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="C1145" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="D1145" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="E1145" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="F1145" t="n">
-        <v>45968</v>
-      </c>
-      <c r="G1145" t="n">
-        <v>-6804698.584165067</v>
-      </c>
-      <c r="H1145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1145" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="J1145" t="inlineStr"/>
-      <c r="K1145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1145" t="inlineStr"/>
-    </row>
-    <row r="1146">
-      <c r="A1146" s="1" t="n">
-        <v>1144</v>
-      </c>
-      <c r="B1146" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="C1146" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="D1146" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="E1146" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="F1146" t="n">
-        <v>40992</v>
-      </c>
-      <c r="G1146" t="n">
-        <v>-6845690.584165067</v>
-      </c>
-      <c r="H1146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1146" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="J1146" t="inlineStr"/>
-      <c r="K1146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1146" t="inlineStr"/>
-    </row>
-    <row r="1147">
-      <c r="A1147" s="1" t="n">
-        <v>1145</v>
-      </c>
-      <c r="B1147" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="C1147" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="D1147" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="E1147" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="F1147" t="n">
-        <v>35590.0016</v>
-      </c>
-      <c r="G1147" t="n">
-        <v>-6881280.585765067</v>
-      </c>
-      <c r="H1147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1147" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="J1147" t="inlineStr"/>
-      <c r="K1147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1147" t="inlineStr"/>
-    </row>
-    <row r="1148">
-      <c r="A1148" s="1" t="n">
-        <v>1146</v>
-      </c>
-      <c r="B1148" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="C1148" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="D1148" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="E1148" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="F1148" t="n">
-        <v>160962.6269</v>
-      </c>
-      <c r="G1148" t="n">
-        <v>-6720317.958865068</v>
-      </c>
-      <c r="H1148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1148" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="J1148" t="inlineStr"/>
-      <c r="K1148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1148" t="inlineStr"/>
-    </row>
-    <row r="1149">
-      <c r="A1149" s="1" t="n">
-        <v>1147</v>
-      </c>
-      <c r="B1149" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="C1149" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="D1149" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="E1149" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="F1149" t="n">
-        <v>22561</v>
-      </c>
-      <c r="G1149" t="n">
-        <v>-6742878.958865068</v>
-      </c>
-      <c r="H1149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1149" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="J1149" t="inlineStr"/>
-      <c r="K1149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1149" t="inlineStr"/>
-    </row>
-    <row r="1150">
-      <c r="A1150" s="1" t="n">
-        <v>1148</v>
-      </c>
-      <c r="B1150" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="C1150" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="D1150" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="E1150" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="F1150" t="n">
-        <v>19987</v>
-      </c>
-      <c r="G1150" t="n">
-        <v>-6742878.958865068</v>
-      </c>
-      <c r="H1150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1150" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="J1150" t="inlineStr"/>
-      <c r="K1150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1150" t="inlineStr"/>
-    </row>
-    <row r="1151">
-      <c r="A1151" s="1" t="n">
-        <v>1149</v>
-      </c>
-      <c r="B1151" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="C1151" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="D1151" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="E1151" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="F1151" t="n">
-        <v>19816</v>
-      </c>
-      <c r="G1151" t="n">
-        <v>-6742878.958865068</v>
-      </c>
-      <c r="H1151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1151" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="J1151" t="inlineStr"/>
-      <c r="K1151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1151" t="inlineStr"/>
-    </row>
-    <row r="1152">
-      <c r="A1152" s="1" t="n">
-        <v>1150</v>
-      </c>
-      <c r="B1152" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="C1152" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="D1152" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="E1152" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="F1152" t="n">
-        <v>35189</v>
-      </c>
-      <c r="G1152" t="n">
-        <v>-6707689.958865068</v>
-      </c>
-      <c r="H1152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1152" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1152" t="inlineStr"/>
-    </row>
-    <row r="1153">
-      <c r="A1153" s="1" t="n">
-        <v>1151</v>
-      </c>
-      <c r="B1153" t="n">
-        <v>1.815</v>
-      </c>
-      <c r="C1153" t="n">
-        <v>1.815</v>
-      </c>
-      <c r="D1153" t="n">
-        <v>1.815</v>
-      </c>
-      <c r="E1153" t="n">
-        <v>1.815</v>
-      </c>
-      <c r="F1153" t="n">
-        <v>27457</v>
-      </c>
-      <c r="G1153" t="n">
-        <v>-6680232.958865068</v>
-      </c>
-      <c r="H1153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1153" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1153" t="inlineStr"/>
-    </row>
-    <row r="1154">
-      <c r="A1154" s="1" t="n">
-        <v>1152</v>
-      </c>
-      <c r="B1154" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="C1154" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="D1154" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="E1154" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="F1154" t="n">
-        <v>22750</v>
-      </c>
-      <c r="G1154" t="n">
-        <v>-6702982.958865068</v>
-      </c>
-      <c r="H1154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1154" t="n">
-        <v>1.815</v>
-      </c>
-      <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1154" t="inlineStr"/>
-    </row>
-    <row r="1155">
-      <c r="A1155" s="1" t="n">
-        <v>1153</v>
-      </c>
-      <c r="B1155" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="C1155" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="D1155" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="E1155" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="F1155" t="n">
-        <v>39909</v>
-      </c>
-      <c r="G1155" t="n">
-        <v>-6742891.958865068</v>
-      </c>
-      <c r="H1155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1155" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="J1155" t="inlineStr"/>
-      <c r="K1155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1155" t="inlineStr"/>
-    </row>
-    <row r="1156">
-      <c r="A1156" s="1" t="n">
-        <v>1154</v>
-      </c>
-      <c r="B1156" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="C1156" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="D1156" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="E1156" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="F1156" t="n">
-        <v>31194</v>
-      </c>
-      <c r="G1156" t="n">
-        <v>-6742891.958865068</v>
-      </c>
-      <c r="H1156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1156" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="J1156" t="inlineStr"/>
-      <c r="K1156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1156" t="inlineStr"/>
-    </row>
-    <row r="1157">
-      <c r="A1157" s="1" t="n">
-        <v>1155</v>
-      </c>
-      <c r="B1157" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="C1157" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="D1157" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="E1157" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="F1157" t="n">
-        <v>23579</v>
-      </c>
-      <c r="G1157" t="n">
-        <v>-6719312.958865068</v>
-      </c>
-      <c r="H1157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1157" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="J1157" t="inlineStr"/>
-      <c r="K1157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1157" t="inlineStr"/>
-    </row>
-    <row r="1158">
-      <c r="A1158" s="1" t="n">
-        <v>1156</v>
-      </c>
-      <c r="B1158" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="C1158" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="D1158" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="E1158" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="F1158" t="n">
-        <v>32521</v>
-      </c>
-      <c r="G1158" t="n">
-        <v>-6751833.958865068</v>
-      </c>
-      <c r="H1158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1158" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="J1158" t="inlineStr"/>
-      <c r="K1158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1158" t="inlineStr"/>
-    </row>
-    <row r="1159">
-      <c r="A1159" s="1" t="n">
-        <v>1157</v>
-      </c>
-      <c r="B1159" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="C1159" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="D1159" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="E1159" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="F1159" t="n">
-        <v>36926</v>
-      </c>
-      <c r="G1159" t="n">
-        <v>-6788759.958865068</v>
-      </c>
-      <c r="H1159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1159" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="J1159" t="inlineStr"/>
-      <c r="K1159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1159" t="inlineStr"/>
-    </row>
-    <row r="1160">
-      <c r="A1160" s="1" t="n">
-        <v>1158</v>
-      </c>
-      <c r="B1160" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="C1160" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="D1160" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="E1160" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="F1160" t="n">
-        <v>42530</v>
-      </c>
-      <c r="G1160" t="n">
-        <v>-6831289.958865068</v>
-      </c>
-      <c r="H1160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1160" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="J1160" t="inlineStr"/>
-      <c r="K1160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1160" t="inlineStr"/>
-    </row>
-    <row r="1161">
-      <c r="A1161" s="1" t="n">
-        <v>1159</v>
-      </c>
-      <c r="B1161" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="C1161" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="D1161" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="E1161" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="F1161" t="n">
-        <v>31786</v>
-      </c>
-      <c r="G1161" t="n">
-        <v>-6831289.958865068</v>
-      </c>
-      <c r="H1161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1161" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="J1161" t="inlineStr"/>
-      <c r="K1161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1161" t="inlineStr"/>
-    </row>
-    <row r="1162">
-      <c r="A1162" s="1" t="n">
-        <v>1160</v>
-      </c>
-      <c r="B1162" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="C1162" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="D1162" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="E1162" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="F1162" t="n">
-        <v>42248</v>
-      </c>
-      <c r="G1162" t="n">
-        <v>-6789041.958865068</v>
-      </c>
-      <c r="H1162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1162" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="J1162" t="inlineStr"/>
-      <c r="K1162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1162" t="inlineStr"/>
-    </row>
-    <row r="1163">
-      <c r="A1163" s="1" t="n">
-        <v>1161</v>
-      </c>
-      <c r="B1163" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="C1163" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="D1163" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="E1163" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="F1163" t="n">
-        <v>32794</v>
-      </c>
-      <c r="G1163" t="n">
-        <v>-6789041.958865068</v>
-      </c>
-      <c r="H1163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1163" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="J1163" t="inlineStr"/>
-      <c r="K1163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1163" t="inlineStr"/>
-    </row>
-    <row r="1164">
-      <c r="A1164" s="1" t="n">
-        <v>1162</v>
-      </c>
-      <c r="B1164" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="C1164" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="D1164" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="E1164" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="F1164" t="n">
-        <v>42927</v>
-      </c>
-      <c r="G1164" t="n">
-        <v>-6789041.958865068</v>
-      </c>
-      <c r="H1164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1164" t="inlineStr"/>
-      <c r="J1164" t="inlineStr"/>
-      <c r="K1164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1164" t="inlineStr"/>
-    </row>
-    <row r="1165">
-      <c r="A1165" s="1" t="n">
-        <v>1163</v>
-      </c>
-      <c r="B1165" t="n">
-        <v>1.815</v>
-      </c>
-      <c r="C1165" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="D1165" t="n">
-        <v>1.815</v>
-      </c>
-      <c r="E1165" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="F1165" t="n">
-        <v>39209.7127</v>
-      </c>
-      <c r="G1165" t="n">
-        <v>-6828251.671565068</v>
-      </c>
-      <c r="H1165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1165" t="inlineStr"/>
-      <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -39064,7 +38960,9 @@
       <c r="I1166" t="n">
         <v>1.811</v>
       </c>
-      <c r="J1166" t="inlineStr"/>
+      <c r="J1166" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39098,10 +38996,14 @@
         <v>-6771982.671565068</v>
       </c>
       <c r="H1167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1167" t="inlineStr"/>
-      <c r="J1167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39135,10 +39037,14 @@
         <v>-6815322.671565068</v>
       </c>
       <c r="H1168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1168" t="inlineStr"/>
-      <c r="J1168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39172,10 +39078,14 @@
         <v>-6768288.671565068</v>
       </c>
       <c r="H1169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1169" t="inlineStr"/>
-      <c r="J1169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39214,7 +39124,9 @@
       <c r="I1170" t="n">
         <v>1.816</v>
       </c>
-      <c r="J1170" t="inlineStr"/>
+      <c r="J1170" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39248,10 +39160,14 @@
         <v>-6756550.671565068</v>
       </c>
       <c r="H1171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1171" t="inlineStr"/>
-      <c r="J1171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39285,10 +39201,14 @@
         <v>-6781059.671565068</v>
       </c>
       <c r="H1172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1172" t="inlineStr"/>
-      <c r="J1172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39327,7 +39247,9 @@
       <c r="I1173" t="n">
         <v>1.814</v>
       </c>
-      <c r="J1173" t="inlineStr"/>
+      <c r="J1173" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39366,7 +39288,9 @@
       <c r="I1174" t="n">
         <v>1.815</v>
       </c>
-      <c r="J1174" t="inlineStr"/>
+      <c r="J1174" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39405,7 +39329,9 @@
       <c r="I1175" t="n">
         <v>1.811</v>
       </c>
-      <c r="J1175" t="inlineStr"/>
+      <c r="J1175" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39444,7 +39370,9 @@
       <c r="I1176" t="n">
         <v>1.813</v>
       </c>
-      <c r="J1176" t="inlineStr"/>
+      <c r="J1176" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39483,7 +39411,9 @@
       <c r="I1177" t="n">
         <v>1.813</v>
       </c>
-      <c r="J1177" t="inlineStr"/>
+      <c r="J1177" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39522,7 +39452,9 @@
       <c r="I1178" t="n">
         <v>1.815</v>
       </c>
-      <c r="J1178" t="inlineStr"/>
+      <c r="J1178" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39561,7 +39493,9 @@
       <c r="I1179" t="n">
         <v>1.818</v>
       </c>
-      <c r="J1179" t="inlineStr"/>
+      <c r="J1179" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39600,7 +39534,9 @@
       <c r="I1180" t="n">
         <v>1.816</v>
       </c>
-      <c r="J1180" t="inlineStr"/>
+      <c r="J1180" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39639,7 +39575,9 @@
       <c r="I1181" t="n">
         <v>1.817</v>
       </c>
-      <c r="J1181" t="inlineStr"/>
+      <c r="J1181" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39678,7 +39616,9 @@
       <c r="I1182" t="n">
         <v>1.818</v>
       </c>
-      <c r="J1182" t="inlineStr"/>
+      <c r="J1182" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39717,7 +39657,9 @@
       <c r="I1183" t="n">
         <v>1.817</v>
       </c>
-      <c r="J1183" t="inlineStr"/>
+      <c r="J1183" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39756,7 +39698,9 @@
       <c r="I1184" t="n">
         <v>1.818</v>
       </c>
-      <c r="J1184" t="inlineStr"/>
+      <c r="J1184" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39795,7 +39739,9 @@
       <c r="I1185" t="n">
         <v>1.817</v>
       </c>
-      <c r="J1185" t="inlineStr"/>
+      <c r="J1185" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39834,7 +39780,9 @@
       <c r="I1186" t="n">
         <v>1.819</v>
       </c>
-      <c r="J1186" t="inlineStr"/>
+      <c r="J1186" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39873,7 +39821,9 @@
       <c r="I1187" t="n">
         <v>1.818</v>
       </c>
-      <c r="J1187" t="inlineStr"/>
+      <c r="J1187" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39912,7 +39862,9 @@
       <c r="I1188" t="n">
         <v>1.821</v>
       </c>
-      <c r="J1188" t="inlineStr"/>
+      <c r="J1188" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39951,7 +39903,9 @@
       <c r="I1189" t="n">
         <v>1.818</v>
       </c>
-      <c r="J1189" t="inlineStr"/>
+      <c r="J1189" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39985,10 +39939,14 @@
         <v>-6733712.347565068</v>
       </c>
       <c r="H1190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1190" t="inlineStr"/>
-      <c r="J1190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="J1190" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40025,7 +39983,9 @@
         <v>0</v>
       </c>
       <c r="I1191" t="inlineStr"/>
-      <c r="J1191" t="inlineStr"/>
+      <c r="J1191" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40059,10 +40019,14 @@
         <v>-6652854.347565068</v>
       </c>
       <c r="H1192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1192" t="inlineStr"/>
-      <c r="J1192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="J1192" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40096,10 +40060,14 @@
         <v>-6631010.347565068</v>
       </c>
       <c r="H1193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1193" t="inlineStr"/>
-      <c r="J1193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="J1193" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40133,10 +40101,14 @@
         <v>-6590717.347565068</v>
       </c>
       <c r="H1194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1194" t="inlineStr"/>
-      <c r="J1194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>1.821</v>
+      </c>
+      <c r="J1194" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40170,10 +40142,14 @@
         <v>-6559716.347565068</v>
       </c>
       <c r="H1195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1195" t="inlineStr"/>
-      <c r="J1195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>1.823</v>
+      </c>
+      <c r="J1195" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40207,10 +40183,14 @@
         <v>-6601676.347565068</v>
       </c>
       <c r="H1196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1196" t="inlineStr"/>
-      <c r="J1196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>1.824</v>
+      </c>
+      <c r="J1196" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40244,10 +40224,14 @@
         <v>-6636824.347565068</v>
       </c>
       <c r="H1197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1197" t="inlineStr"/>
-      <c r="J1197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>1.822</v>
+      </c>
+      <c r="J1197" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40281,10 +40265,14 @@
         <v>-6605308.347565068</v>
       </c>
       <c r="H1198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1198" t="inlineStr"/>
-      <c r="J1198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="J1198" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40318,10 +40306,14 @@
         <v>-6642268.347565068</v>
       </c>
       <c r="H1199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1199" t="inlineStr"/>
-      <c r="J1199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="J1199" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40355,10 +40347,14 @@
         <v>-6642268.347565068</v>
       </c>
       <c r="H1200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1200" t="inlineStr"/>
-      <c r="J1200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="J1200" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40392,10 +40388,14 @@
         <v>-6642268.347565068</v>
       </c>
       <c r="H1201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1201" t="inlineStr"/>
-      <c r="J1201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="J1201" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40434,7 +40434,9 @@
       <c r="I1202" t="n">
         <v>1.816</v>
       </c>
-      <c r="J1202" t="inlineStr"/>
+      <c r="J1202" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40473,7 +40475,9 @@
       <c r="I1203" t="n">
         <v>1.817</v>
       </c>
-      <c r="J1203" t="inlineStr"/>
+      <c r="J1203" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40512,7 +40516,9 @@
       <c r="I1204" t="n">
         <v>1.816</v>
       </c>
-      <c r="J1204" t="inlineStr"/>
+      <c r="J1204" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40551,7 +40557,9 @@
       <c r="I1205" t="n">
         <v>1.816</v>
       </c>
-      <c r="J1205" t="inlineStr"/>
+      <c r="J1205" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40590,7 +40598,9 @@
       <c r="I1206" t="n">
         <v>1.818</v>
       </c>
-      <c r="J1206" t="inlineStr"/>
+      <c r="J1206" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40629,7 +40639,9 @@
       <c r="I1207" t="n">
         <v>1.818</v>
       </c>
-      <c r="J1207" t="inlineStr"/>
+      <c r="J1207" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40668,7 +40680,9 @@
       <c r="I1208" t="n">
         <v>1.817</v>
       </c>
-      <c r="J1208" t="inlineStr"/>
+      <c r="J1208" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40707,7 +40721,9 @@
       <c r="I1209" t="n">
         <v>1.82</v>
       </c>
-      <c r="J1209" t="inlineStr"/>
+      <c r="J1209" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40746,7 +40762,9 @@
       <c r="I1210" t="n">
         <v>1.818</v>
       </c>
-      <c r="J1210" t="inlineStr"/>
+      <c r="J1210" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40785,7 +40803,9 @@
       <c r="I1211" t="n">
         <v>1.819</v>
       </c>
-      <c r="J1211" t="inlineStr"/>
+      <c r="J1211" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40824,7 +40844,9 @@
       <c r="I1212" t="n">
         <v>1.821</v>
       </c>
-      <c r="J1212" t="inlineStr"/>
+      <c r="J1212" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40863,7 +40885,9 @@
       <c r="I1213" t="n">
         <v>1.819</v>
       </c>
-      <c r="J1213" t="inlineStr"/>
+      <c r="J1213" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40902,7 +40926,9 @@
       <c r="I1214" t="n">
         <v>1.821</v>
       </c>
-      <c r="J1214" t="inlineStr"/>
+      <c r="J1214" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40941,7 +40967,9 @@
       <c r="I1215" t="n">
         <v>1.822</v>
       </c>
-      <c r="J1215" t="inlineStr"/>
+      <c r="J1215" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40980,7 +41008,9 @@
       <c r="I1216" t="n">
         <v>1.821</v>
       </c>
-      <c r="J1216" t="inlineStr"/>
+      <c r="J1216" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41019,7 +41049,9 @@
       <c r="I1217" t="n">
         <v>1.818</v>
       </c>
-      <c r="J1217" t="inlineStr"/>
+      <c r="J1217" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41058,7 +41090,9 @@
       <c r="I1218" t="n">
         <v>1.818</v>
       </c>
-      <c r="J1218" t="inlineStr"/>
+      <c r="J1218" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41097,7 +41131,9 @@
       <c r="I1219" t="n">
         <v>1.819</v>
       </c>
-      <c r="J1219" t="inlineStr"/>
+      <c r="J1219" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41136,7 +41172,9 @@
       <c r="I1220" t="n">
         <v>1.82</v>
       </c>
-      <c r="J1220" t="inlineStr"/>
+      <c r="J1220" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41175,7 +41213,9 @@
       <c r="I1221" t="n">
         <v>1.822</v>
       </c>
-      <c r="J1221" t="inlineStr"/>
+      <c r="J1221" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41214,7 +41254,9 @@
       <c r="I1222" t="n">
         <v>1.82</v>
       </c>
-      <c r="J1222" t="inlineStr"/>
+      <c r="J1222" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41253,7 +41295,9 @@
       <c r="I1223" t="n">
         <v>1.819</v>
       </c>
-      <c r="J1223" t="inlineStr"/>
+      <c r="J1223" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41292,7 +41336,9 @@
       <c r="I1224" t="n">
         <v>1.82</v>
       </c>
-      <c r="J1224" t="inlineStr"/>
+      <c r="J1224" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41326,10 +41372,14 @@
         <v>-6457430.347565068</v>
       </c>
       <c r="H1225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1225" t="inlineStr"/>
-      <c r="J1225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="J1225" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41363,10 +41413,14 @@
         <v>-6457430.347565068</v>
       </c>
       <c r="H1226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1226" t="inlineStr"/>
-      <c r="J1226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>1.822</v>
+      </c>
+      <c r="J1226" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41405,7 +41459,9 @@
       <c r="I1227" t="n">
         <v>1.822</v>
       </c>
-      <c r="J1227" t="inlineStr"/>
+      <c r="J1227" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41444,7 +41500,9 @@
       <c r="I1228" t="n">
         <v>1.82</v>
       </c>
-      <c r="J1228" t="inlineStr"/>
+      <c r="J1228" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41483,7 +41541,9 @@
       <c r="I1229" t="n">
         <v>1.821</v>
       </c>
-      <c r="J1229" t="inlineStr"/>
+      <c r="J1229" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41522,7 +41582,9 @@
       <c r="I1230" t="n">
         <v>1.821</v>
       </c>
-      <c r="J1230" t="inlineStr"/>
+      <c r="J1230" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41561,7 +41623,9 @@
       <c r="I1231" t="n">
         <v>1.823</v>
       </c>
-      <c r="J1231" t="inlineStr"/>
+      <c r="J1231" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41600,7 +41664,9 @@
       <c r="I1232" t="n">
         <v>1.825</v>
       </c>
-      <c r="J1232" t="inlineStr"/>
+      <c r="J1232" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41639,7 +41705,9 @@
       <c r="I1233" t="n">
         <v>1.824</v>
       </c>
-      <c r="J1233" t="inlineStr"/>
+      <c r="J1233" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41678,7 +41746,9 @@
       <c r="I1234" t="n">
         <v>1.824</v>
       </c>
-      <c r="J1234" t="inlineStr"/>
+      <c r="J1234" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41717,7 +41787,9 @@
       <c r="I1235" t="n">
         <v>1.823</v>
       </c>
-      <c r="J1235" t="inlineStr"/>
+      <c r="J1235" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41756,7 +41828,9 @@
       <c r="I1236" t="n">
         <v>1.824</v>
       </c>
-      <c r="J1236" t="inlineStr"/>
+      <c r="J1236" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41795,7 +41869,9 @@
       <c r="I1237" t="n">
         <v>1.824</v>
       </c>
-      <c r="J1237" t="inlineStr"/>
+      <c r="J1237" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41834,7 +41910,9 @@
       <c r="I1238" t="n">
         <v>1.822</v>
       </c>
-      <c r="J1238" t="inlineStr"/>
+      <c r="J1238" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41873,7 +41951,9 @@
       <c r="I1239" t="n">
         <v>1.823</v>
       </c>
-      <c r="J1239" t="inlineStr"/>
+      <c r="J1239" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41912,7 +41992,9 @@
       <c r="I1240" t="n">
         <v>1.823</v>
       </c>
-      <c r="J1240" t="inlineStr"/>
+      <c r="J1240" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41946,12 +42028,12 @@
         <v>-6369332.347565068</v>
       </c>
       <c r="H1241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1241" t="n">
-        <v>1.824</v>
-      </c>
-      <c r="J1241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1241" t="inlineStr"/>
+      <c r="J1241" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41985,12 +42067,12 @@
         <v>-6332462.347565068</v>
       </c>
       <c r="H1242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1242" t="n">
-        <v>1.823</v>
-      </c>
-      <c r="J1242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1242" t="inlineStr"/>
+      <c r="J1242" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42024,12 +42106,12 @@
         <v>-6332462.347565068</v>
       </c>
       <c r="H1243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1243" t="n">
-        <v>1.824</v>
-      </c>
-      <c r="J1243" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1243" t="inlineStr"/>
+      <c r="J1243" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42068,7 +42150,9 @@
       <c r="I1244" t="n">
         <v>1.824</v>
       </c>
-      <c r="J1244" t="inlineStr"/>
+      <c r="J1244" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42107,7 +42191,9 @@
       <c r="I1245" t="n">
         <v>1.824</v>
       </c>
-      <c r="J1245" t="inlineStr"/>
+      <c r="J1245" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42146,7 +42232,9 @@
       <c r="I1246" t="n">
         <v>1.824</v>
       </c>
-      <c r="J1246" t="inlineStr"/>
+      <c r="J1246" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42185,7 +42273,9 @@
       <c r="I1247" t="n">
         <v>1.824</v>
       </c>
-      <c r="J1247" t="inlineStr"/>
+      <c r="J1247" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42224,7 +42314,9 @@
       <c r="I1248" t="n">
         <v>1.826</v>
       </c>
-      <c r="J1248" t="inlineStr"/>
+      <c r="J1248" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42263,7 +42355,9 @@
       <c r="I1249" t="n">
         <v>1.825</v>
       </c>
-      <c r="J1249" t="inlineStr"/>
+      <c r="J1249" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42302,7 +42396,9 @@
       <c r="I1250" t="n">
         <v>1.825</v>
       </c>
-      <c r="J1250" t="inlineStr"/>
+      <c r="J1250" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42341,7 +42437,9 @@
       <c r="I1251" t="n">
         <v>1.826</v>
       </c>
-      <c r="J1251" t="inlineStr"/>
+      <c r="J1251" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42380,7 +42478,9 @@
       <c r="I1252" t="n">
         <v>1.825</v>
       </c>
-      <c r="J1252" t="inlineStr"/>
+      <c r="J1252" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42419,7 +42519,9 @@
       <c r="I1253" t="n">
         <v>1.826</v>
       </c>
-      <c r="J1253" t="inlineStr"/>
+      <c r="J1253" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42458,7 +42560,9 @@
       <c r="I1254" t="n">
         <v>1.826</v>
       </c>
-      <c r="J1254" t="inlineStr"/>
+      <c r="J1254" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42497,7 +42601,9 @@
       <c r="I1255" t="n">
         <v>1.827</v>
       </c>
-      <c r="J1255" t="inlineStr"/>
+      <c r="J1255" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42536,7 +42642,9 @@
       <c r="I1256" t="n">
         <v>1.826</v>
       </c>
-      <c r="J1256" t="inlineStr"/>
+      <c r="J1256" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42575,7 +42683,9 @@
       <c r="I1257" t="n">
         <v>1.826</v>
       </c>
-      <c r="J1257" t="inlineStr"/>
+      <c r="J1257" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42614,7 +42724,9 @@
       <c r="I1258" t="n">
         <v>1.827</v>
       </c>
-      <c r="J1258" t="inlineStr"/>
+      <c r="J1258" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42653,7 +42765,9 @@
       <c r="I1259" t="n">
         <v>1.828</v>
       </c>
-      <c r="J1259" t="inlineStr"/>
+      <c r="J1259" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42692,7 +42806,9 @@
       <c r="I1260" t="n">
         <v>1.827</v>
       </c>
-      <c r="J1260" t="inlineStr"/>
+      <c r="J1260" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42731,7 +42847,9 @@
       <c r="I1261" t="n">
         <v>1.827</v>
       </c>
-      <c r="J1261" t="inlineStr"/>
+      <c r="J1261" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42770,7 +42888,9 @@
       <c r="I1262" t="n">
         <v>1.829</v>
       </c>
-      <c r="J1262" t="inlineStr"/>
+      <c r="J1262" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42804,12 +42924,12 @@
         <v>-6217413.347565068</v>
       </c>
       <c r="H1263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1263" t="n">
-        <v>1.831</v>
-      </c>
-      <c r="J1263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1263" t="inlineStr"/>
+      <c r="J1263" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42843,12 +42963,12 @@
         <v>-6242666.347565068</v>
       </c>
       <c r="H1264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1264" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="J1264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1264" t="inlineStr"/>
+      <c r="J1264" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42887,7 +43007,9 @@
       <c r="I1265" t="n">
         <v>1.828</v>
       </c>
-      <c r="J1265" t="inlineStr"/>
+      <c r="J1265" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42926,7 +43048,9 @@
       <c r="I1266" t="n">
         <v>1.828</v>
       </c>
-      <c r="J1266" t="inlineStr"/>
+      <c r="J1266" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42965,7 +43089,9 @@
       <c r="I1267" t="n">
         <v>1.828</v>
       </c>
-      <c r="J1267" t="inlineStr"/>
+      <c r="J1267" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42999,12 +43125,12 @@
         <v>-6248033.347565068</v>
       </c>
       <c r="H1268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1268" t="n">
-        <v>1.829</v>
-      </c>
-      <c r="J1268" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1268" t="inlineStr"/>
+      <c r="J1268" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43043,7 +43169,9 @@
       <c r="I1269" t="n">
         <v>1.828</v>
       </c>
-      <c r="J1269" t="inlineStr"/>
+      <c r="J1269" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43082,7 +43210,9 @@
       <c r="I1270" t="n">
         <v>1.828</v>
       </c>
-      <c r="J1270" t="inlineStr"/>
+      <c r="J1270" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43116,12 +43246,12 @@
         <v>-6196548.347565068</v>
       </c>
       <c r="H1271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1271" t="n">
-        <v>1.829</v>
-      </c>
-      <c r="J1271" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1271" t="inlineStr"/>
+      <c r="J1271" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43155,12 +43285,12 @@
         <v>-6165468.347565068</v>
       </c>
       <c r="H1272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1272" t="n">
-        <v>1.831</v>
-      </c>
-      <c r="J1272" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1272" t="inlineStr"/>
+      <c r="J1272" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43194,12 +43324,12 @@
         <v>-6143232.347565068</v>
       </c>
       <c r="H1273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1273" t="n">
-        <v>1.832</v>
-      </c>
-      <c r="J1273" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1273" t="inlineStr"/>
+      <c r="J1273" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43233,12 +43363,12 @@
         <v>-6143232.347565068</v>
       </c>
       <c r="H1274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1274" t="n">
-        <v>1.833</v>
-      </c>
-      <c r="J1274" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1274" t="inlineStr"/>
+      <c r="J1274" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43272,12 +43402,12 @@
         <v>-6171084.347565068</v>
       </c>
       <c r="H1275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1275" t="n">
-        <v>1.833</v>
-      </c>
-      <c r="J1275" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1275" t="inlineStr"/>
+      <c r="J1275" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43311,12 +43441,12 @@
         <v>-6191032.347565068</v>
       </c>
       <c r="H1276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1276" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="J1276" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1276" t="inlineStr"/>
+      <c r="J1276" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43350,12 +43480,12 @@
         <v>-6191032.347565068</v>
       </c>
       <c r="H1277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1277" t="n">
-        <v>1.828</v>
-      </c>
-      <c r="J1277" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1277" t="inlineStr"/>
+      <c r="J1277" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43389,12 +43519,12 @@
         <v>-6191032.347565068</v>
       </c>
       <c r="H1278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1278" t="n">
-        <v>1.828</v>
-      </c>
-      <c r="J1278" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1278" t="inlineStr"/>
+      <c r="J1278" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43428,12 +43558,12 @@
         <v>-6191032.347565068</v>
       </c>
       <c r="H1279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1279" t="n">
-        <v>1.828</v>
-      </c>
-      <c r="J1279" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1279" t="inlineStr"/>
+      <c r="J1279" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43467,12 +43597,12 @@
         <v>-6191032.347565068</v>
       </c>
       <c r="H1280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1280" t="n">
-        <v>1.828</v>
-      </c>
-      <c r="J1280" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1280" t="inlineStr"/>
+      <c r="J1280" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43506,12 +43636,12 @@
         <v>-6171414.347565068</v>
       </c>
       <c r="H1281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1281" t="n">
-        <v>1.828</v>
-      </c>
-      <c r="J1281" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1281" t="inlineStr"/>
+      <c r="J1281" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43545,12 +43675,12 @@
         <v>-6137715.347565068</v>
       </c>
       <c r="H1282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1282" t="n">
-        <v>1.829</v>
-      </c>
-      <c r="J1282" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1282" t="inlineStr"/>
+      <c r="J1282" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43584,12 +43714,12 @@
         <v>-6137715.347565068</v>
       </c>
       <c r="H1283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1283" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="J1283" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1283" t="inlineStr"/>
+      <c r="J1283" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43623,12 +43753,12 @@
         <v>-6172825.347565068</v>
       </c>
       <c r="H1284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1284" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="J1284" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1284" t="inlineStr"/>
+      <c r="J1284" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43662,12 +43792,12 @@
         <v>-6172825.347565068</v>
       </c>
       <c r="H1285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1285" t="n">
-        <v>1.829</v>
-      </c>
-      <c r="J1285" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1285" t="inlineStr"/>
+      <c r="J1285" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43701,12 +43831,12 @@
         <v>-6214354.347565068</v>
       </c>
       <c r="H1286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1286" t="n">
-        <v>1.829</v>
-      </c>
-      <c r="J1286" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1286" t="inlineStr"/>
+      <c r="J1286" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43740,12 +43870,12 @@
         <v>-6214354.347565068</v>
       </c>
       <c r="H1287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1287" t="n">
-        <v>1.828</v>
-      </c>
-      <c r="J1287" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1287" t="inlineStr"/>
+      <c r="J1287" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43779,12 +43909,12 @@
         <v>-6184129.347565068</v>
       </c>
       <c r="H1288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1288" t="n">
-        <v>1.828</v>
-      </c>
-      <c r="J1288" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1288" t="inlineStr"/>
+      <c r="J1288" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43818,12 +43948,12 @@
         <v>-6184129.347565068</v>
       </c>
       <c r="H1289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1289" t="n">
-        <v>1.829</v>
-      </c>
-      <c r="J1289" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1289" t="inlineStr"/>
+      <c r="J1289" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43857,12 +43987,12 @@
         <v>-6184129.347565068</v>
       </c>
       <c r="H1290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1290" t="n">
-        <v>1.829</v>
-      </c>
-      <c r="J1290" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1290" t="inlineStr"/>
+      <c r="J1290" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43896,12 +44026,12 @@
         <v>-6152530.347565068</v>
       </c>
       <c r="H1291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1291" t="n">
-        <v>1.829</v>
-      </c>
-      <c r="J1291" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1291" t="inlineStr"/>
+      <c r="J1291" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43935,12 +44065,12 @@
         <v>-6193134.347565068</v>
       </c>
       <c r="H1292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1292" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="J1292" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1292" t="inlineStr"/>
+      <c r="J1292" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43974,12 +44104,12 @@
         <v>-6219362.347565068</v>
       </c>
       <c r="H1293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1293" t="n">
-        <v>1.829</v>
-      </c>
-      <c r="J1293" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1293" t="inlineStr"/>
+      <c r="J1293" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44013,12 +44143,12 @@
         <v>-6219362.347565068</v>
       </c>
       <c r="H1294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1294" t="n">
-        <v>1.828</v>
-      </c>
-      <c r="J1294" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1294" t="inlineStr"/>
+      <c r="J1294" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44052,12 +44182,12 @@
         <v>-6172229.347565068</v>
       </c>
       <c r="H1295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1295" t="n">
-        <v>1.828</v>
-      </c>
-      <c r="J1295" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1295" t="inlineStr"/>
+      <c r="J1295" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44091,12 +44221,12 @@
         <v>-6148884.347565068</v>
       </c>
       <c r="H1296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1296" t="n">
-        <v>1.831</v>
-      </c>
-      <c r="J1296" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1296" t="inlineStr"/>
+      <c r="J1296" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44130,12 +44260,12 @@
         <v>-6195617.347565068</v>
       </c>
       <c r="H1297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1297" t="n">
-        <v>1.832</v>
-      </c>
-      <c r="J1297" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1297" t="inlineStr"/>
+      <c r="J1297" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44169,12 +44299,12 @@
         <v>-6195617.347565068</v>
       </c>
       <c r="H1298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1298" t="n">
-        <v>1.829</v>
-      </c>
-      <c r="J1298" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1298" t="inlineStr"/>
+      <c r="J1298" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44208,12 +44338,12 @@
         <v>-6147851.347565068</v>
       </c>
       <c r="H1299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1299" t="n">
-        <v>1.829</v>
-      </c>
-      <c r="J1299" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1299" t="inlineStr"/>
+      <c r="J1299" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44247,12 +44377,12 @@
         <v>-6122918.347565068</v>
       </c>
       <c r="H1300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1300" t="n">
-        <v>1.831</v>
-      </c>
-      <c r="J1300" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1300" t="inlineStr"/>
+      <c r="J1300" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44286,12 +44416,12 @@
         <v>-6143002.347565068</v>
       </c>
       <c r="H1301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1301" t="n">
-        <v>1.832</v>
-      </c>
-      <c r="J1301" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1301" t="inlineStr"/>
+      <c r="J1301" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44325,12 +44455,12 @@
         <v>-6164561.347565068</v>
       </c>
       <c r="H1302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1302" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="J1302" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1302" t="inlineStr"/>
+      <c r="J1302" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44364,12 +44494,12 @@
         <v>-6159561.347565068</v>
       </c>
       <c r="H1303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1303" t="n">
-        <v>1.828</v>
-      </c>
-      <c r="J1303" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1303" t="inlineStr"/>
+      <c r="J1303" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44406,7 +44536,9 @@
         <v>0</v>
       </c>
       <c r="I1304" t="inlineStr"/>
-      <c r="J1304" t="inlineStr"/>
+      <c r="J1304" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44443,7 +44575,9 @@
         <v>0</v>
       </c>
       <c r="I1305" t="inlineStr"/>
-      <c r="J1305" t="inlineStr"/>
+      <c r="J1305" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44480,7 +44614,9 @@
         <v>0</v>
       </c>
       <c r="I1306" t="inlineStr"/>
-      <c r="J1306" t="inlineStr"/>
+      <c r="J1306" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44517,7 +44653,9 @@
         <v>0</v>
       </c>
       <c r="I1307" t="inlineStr"/>
-      <c r="J1307" t="inlineStr"/>
+      <c r="J1307" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44554,7 +44692,9 @@
         <v>0</v>
       </c>
       <c r="I1308" t="inlineStr"/>
-      <c r="J1308" t="inlineStr"/>
+      <c r="J1308" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44591,7 +44731,9 @@
         <v>0</v>
       </c>
       <c r="I1309" t="inlineStr"/>
-      <c r="J1309" t="inlineStr"/>
+      <c r="J1309" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44628,7 +44770,9 @@
         <v>0</v>
       </c>
       <c r="I1310" t="inlineStr"/>
-      <c r="J1310" t="inlineStr"/>
+      <c r="J1310" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44665,7 +44809,9 @@
         <v>0</v>
       </c>
       <c r="I1311" t="inlineStr"/>
-      <c r="J1311" t="inlineStr"/>
+      <c r="J1311" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44702,7 +44848,9 @@
         <v>0</v>
       </c>
       <c r="I1312" t="inlineStr"/>
-      <c r="J1312" t="inlineStr"/>
+      <c r="J1312" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44739,7 +44887,9 @@
         <v>0</v>
       </c>
       <c r="I1313" t="inlineStr"/>
-      <c r="J1313" t="inlineStr"/>
+      <c r="J1313" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44776,7 +44926,9 @@
         <v>0</v>
       </c>
       <c r="I1314" t="inlineStr"/>
-      <c r="J1314" t="inlineStr"/>
+      <c r="J1314" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44813,7 +44965,9 @@
         <v>0</v>
       </c>
       <c r="I1315" t="inlineStr"/>
-      <c r="J1315" t="inlineStr"/>
+      <c r="J1315" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44850,7 +45004,9 @@
         <v>0</v>
       </c>
       <c r="I1316" t="inlineStr"/>
-      <c r="J1316" t="inlineStr"/>
+      <c r="J1316" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44887,7 +45043,9 @@
         <v>0</v>
       </c>
       <c r="I1317" t="inlineStr"/>
-      <c r="J1317" t="inlineStr"/>
+      <c r="J1317" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44924,7 +45082,9 @@
         <v>0</v>
       </c>
       <c r="I1318" t="inlineStr"/>
-      <c r="J1318" t="inlineStr"/>
+      <c r="J1318" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44961,7 +45121,9 @@
         <v>0</v>
       </c>
       <c r="I1319" t="inlineStr"/>
-      <c r="J1319" t="inlineStr"/>
+      <c r="J1319" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44998,7 +45160,9 @@
         <v>0</v>
       </c>
       <c r="I1320" t="inlineStr"/>
-      <c r="J1320" t="inlineStr"/>
+      <c r="J1320" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45032,12 +45196,12 @@
         <v>-6709904.532665067</v>
       </c>
       <c r="H1321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1321" t="n">
-        <v>1.829</v>
-      </c>
-      <c r="J1321" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1321" t="inlineStr"/>
+      <c r="J1321" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45071,12 +45235,12 @@
         <v>-6662752.532665067</v>
       </c>
       <c r="H1322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1322" t="n">
-        <v>1.829</v>
-      </c>
-      <c r="J1322" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1322" t="inlineStr"/>
+      <c r="J1322" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45110,12 +45274,12 @@
         <v>-6622311.532665067</v>
       </c>
       <c r="H1323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1323" t="n">
-        <v>1.831</v>
-      </c>
-      <c r="J1323" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1323" t="inlineStr"/>
+      <c r="J1323" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45149,12 +45313,12 @@
         <v>-6657020.532665067</v>
       </c>
       <c r="H1324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1324" t="n">
-        <v>1.832</v>
-      </c>
-      <c r="J1324" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1324" t="inlineStr"/>
+      <c r="J1324" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45188,12 +45352,12 @@
         <v>-6703679.532665067</v>
       </c>
       <c r="H1325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1325" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="J1325" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1325" t="inlineStr"/>
+      <c r="J1325" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45227,12 +45391,12 @@
         <v>-6667121.532665067</v>
       </c>
       <c r="H1326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1326" t="n">
-        <v>1.828</v>
-      </c>
-      <c r="J1326" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1326" t="inlineStr"/>
+      <c r="J1326" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45266,12 +45430,12 @@
         <v>-6667121.532665067</v>
       </c>
       <c r="H1327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1327" t="n">
-        <v>1.829</v>
-      </c>
-      <c r="J1327" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1327" t="inlineStr"/>
+      <c r="J1327" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45305,12 +45469,12 @@
         <v>-6667121.532665067</v>
       </c>
       <c r="H1328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1328" t="n">
-        <v>1.829</v>
-      </c>
-      <c r="J1328" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1328" t="inlineStr"/>
+      <c r="J1328" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45344,12 +45508,12 @@
         <v>-6645444.532665067</v>
       </c>
       <c r="H1329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1329" t="n">
-        <v>1.829</v>
-      </c>
-      <c r="J1329" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1329" t="inlineStr"/>
+      <c r="J1329" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45383,12 +45547,12 @@
         <v>-6610698.532665067</v>
       </c>
       <c r="H1330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1330" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="J1330" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1330" t="inlineStr"/>
+      <c r="J1330" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45422,12 +45586,12 @@
         <v>-6610698.532665067</v>
       </c>
       <c r="H1331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1331" t="n">
-        <v>1.833</v>
-      </c>
-      <c r="J1331" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1331" t="inlineStr"/>
+      <c r="J1331" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45461,12 +45625,12 @@
         <v>-6652019.532665067</v>
       </c>
       <c r="H1332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1332" t="n">
-        <v>1.833</v>
-      </c>
-      <c r="J1332" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1332" t="inlineStr"/>
+      <c r="J1332" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45500,12 +45664,12 @@
         <v>-6581655.047465067</v>
       </c>
       <c r="H1333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1333" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="J1333" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1333" t="inlineStr"/>
+      <c r="J1333" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45544,7 +45708,9 @@
       <c r="I1334" t="n">
         <v>1.82</v>
       </c>
-      <c r="J1334" t="inlineStr"/>
+      <c r="J1334" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45578,12 +45744,12 @@
         <v>-6592009.047465067</v>
       </c>
       <c r="H1335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1335" t="n">
-        <v>1.822</v>
-      </c>
-      <c r="J1335" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1335" t="inlineStr"/>
+      <c r="J1335" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45617,12 +45783,12 @@
         <v>-6592009.047465067</v>
       </c>
       <c r="H1336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1336" t="n">
-        <v>1.821</v>
-      </c>
-      <c r="J1336" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1336" t="inlineStr"/>
+      <c r="J1336" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45661,7 +45827,9 @@
       <c r="I1337" t="n">
         <v>1.821</v>
       </c>
-      <c r="J1337" t="inlineStr"/>
+      <c r="J1337" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45700,7 +45868,9 @@
       <c r="I1338" t="n">
         <v>1.822</v>
       </c>
-      <c r="J1338" t="inlineStr"/>
+      <c r="J1338" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45734,12 +45904,12 @@
         <v>-6511968.047465067</v>
       </c>
       <c r="H1339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1339" t="n">
-        <v>1.822</v>
-      </c>
-      <c r="J1339" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1339" t="inlineStr"/>
+      <c r="J1339" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45773,12 +45943,12 @@
         <v>-6511968.047465067</v>
       </c>
       <c r="H1340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1340" t="n">
-        <v>1.823</v>
-      </c>
-      <c r="J1340" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1340" t="inlineStr"/>
+      <c r="J1340" t="n">
+        <v>1.812</v>
+      </c>
       <c r="K1340" t="inlineStr">
         <is>
           <t>매도 대기</t>
